--- a/evaluation/output3.xlsx
+++ b/evaluation/output3.xlsx
@@ -484,22 +484,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.613±0.019</t>
+          <t>0.834±0.027</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.385±0.029</t>
+          <t>0.561±0.026</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.631±0.017</t>
+          <t>0.839±0.027</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.522±0.017</t>
+          <t>0.779±0.019</t>
         </is>
       </c>
     </row>
@@ -517,22 +517,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.613±0.019</t>
+          <t>0.834±0.027</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.385±0.029</t>
+          <t>0.561±0.026</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.631±0.017</t>
+          <t>0.839±0.027</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.567±0.022</t>
+          <t>0.82±0.029</t>
         </is>
       </c>
     </row>
@@ -550,22 +550,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.613±0.019</t>
+          <t>0.834±0.027</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.385±0.029</t>
+          <t>0.561±0.026</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.631±0.017</t>
+          <t>0.839±0.027</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.642±0.015</t>
+          <t>0.846±0.021</t>
         </is>
       </c>
     </row>
@@ -583,22 +583,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.613±0.019</t>
+          <t>0.834±0.027</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.385±0.029</t>
+          <t>0.561±0.026</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.631±0.017</t>
+          <t>0.839±0.027</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.511±0.025</t>
+          <t>0.809±0.028</t>
         </is>
       </c>
     </row>
@@ -748,22 +748,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.607±0.015</t>
+          <t>0.775±0.025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.0±0.0</t>
+          <t>0.5±0.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.55±0.027</t>
+          <t>0.709±0.039</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.539±0.033</t>
+          <t>0.709±0.035</t>
         </is>
       </c>
     </row>
@@ -781,22 +781,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.607±0.015</t>
+          <t>0.775±0.025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0±0.0</t>
+          <t>0.5±0.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.55±0.027</t>
+          <t>0.709±0.039</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.534±0.022</t>
+          <t>0.722±0.036</t>
         </is>
       </c>
     </row>
@@ -814,22 +814,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.607±0.015</t>
+          <t>0.775±0.025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.0±0.0</t>
+          <t>0.5±0.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.55±0.027</t>
+          <t>0.709±0.039</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.528±0.025</t>
+          <t>0.698±0.035</t>
         </is>
       </c>
     </row>
@@ -847,22 +847,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.607±0.015</t>
+          <t>0.775±0.025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0±0.0</t>
+          <t>0.5±0.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.55±0.027</t>
+          <t>0.709±0.039</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.546±0.022</t>
+          <t>0.709±0.034</t>
         </is>
       </c>
     </row>
